--- a/biology/Médecine/Jean-Louis_Prevost/Jean-Louis_Prevost.xlsx
+++ b/biology/Médecine/Jean-Louis_Prevost/Jean-Louis_Prevost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Prevost, né le 1er septembre 1790 à Genève et mort à Genève le 14 mars 1850, est un médecin et biologiste suisse auteur de contributions fondamentales à la théorie du développement embryonnaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-René, négociant et de Jeanne-Émilie Moultou. Il étudie la médecine à Paris (1814-1816), puis à Édimbourg où il obtient son doctorat en 1818. Il effectue ensuite un stage de deux ans dans un hôpital de Dublin avant de se fixer à Genève, où il pratique la médecine avec succès tout en se livrant à des recherches de physiologie et d'embryologie. 
 En 1820, il fonde le Dispensaire de médecine de Genève avec Louis-André Gosse et Jean-Pierre Dupin. 
@@ -545,14 +559,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"De la génération chez les moules des peintres" (Mémoires de la SPHN, t. 3)
 "Note sur la circulation du fœtus chez les ruminants" (Mémoires de la SPHN, t. 4)
 Note sur la régénération du tissu nerveux, 1826.
 De la génération chez le Sèchot (Mulus Gobio), 1828.
 Des organes générateurs chez quelques Gastéropodes, 1832.
-Note sur l'inflammation, [Genève], [s.n.] , [1833].
+Note sur l'inflammation, [Genève], [s.n.] , .
 Note sur les animalcules spermatiques de la grenouille et de la salamandre, [Genève , 1841?].
 En collaboration:
 avec Jean-Baptiste Dumas :
